--- a/data/fonio_data/Raw_matrix_data_actors.xlsx
+++ b/data/fonio_data/Raw_matrix_data_actors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corywhitney/Library/CloudStorage/Dropbox/Travel/Uni_Bonn/2025/Benin_Alliance_Crop_Trust/25_fonio_jute_Benin/Fonio_and_Jute_value_chains_North_Benin/data/fonio_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C819B39E-3205-4C3F-A714-6DE1D1D6DEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C55324-3DF8-104B-9A7A-95EE63699863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{6A46074C-6F7E-4C5F-B977-8E886A257930}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{6A46074C-6F7E-4C5F-B977-8E886A257930}"/>
   </bookViews>
   <sheets>
     <sheet name="Fichier à remplir" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,16 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -506,14 +516,14 @@
       <selection pane="bottomRight" sqref="A1:Y45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7.1796875" style="3" customWidth="1"/>
-    <col min="3" max="25" width="7.1796875" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="3" customWidth="1"/>
+    <col min="3" max="25" width="7.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -542,7 +552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
@@ -616,7 +626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -627,7 +637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -672,7 +682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -709,7 +719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -749,7 +759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -791,7 +801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -835,7 +845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -882,7 +892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -934,7 +944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -980,7 +990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -1017,7 +1027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -1028,7 +1038,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -1085,7 +1095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>2</v>
       </c>
@@ -1153,7 +1163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>3</v>
       </c>
@@ -1201,7 +1211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>4</v>
       </c>
@@ -1252,7 +1262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>5</v>
       </c>
@@ -1326,7 +1336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>6</v>
       </c>
@@ -1394,7 +1404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>7</v>
       </c>
@@ -1464,7 +1474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>8</v>
       </c>
@@ -1515,7 +1525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>9</v>
       </c>
@@ -1576,7 +1586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>12</v>
       </c>
@@ -1587,7 +1597,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>1</v>
       </c>
@@ -1634,7 +1644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>2</v>
       </c>
@@ -1677,7 +1687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>3</v>
       </c>
@@ -1713,7 +1723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>4</v>
       </c>
@@ -1752,7 +1762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>5</v>
       </c>
@@ -1793,7 +1803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>6</v>
       </c>
@@ -1841,7 +1851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>7</v>
       </c>
@@ -1888,7 +1898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>8</v>
       </c>
@@ -1930,7 +1940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>9</v>
       </c>
@@ -1978,7 +1988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>11</v>
       </c>
@@ -1989,7 +1999,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>1</v>
       </c>
@@ -2060,7 +2070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>2</v>
       </c>
@@ -2123,7 +2133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>3</v>
       </c>
@@ -2176,7 +2186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>4</v>
       </c>
@@ -2217,7 +2227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>5</v>
       </c>
@@ -2266,7 +2276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>6</v>
       </c>
@@ -2309,7 +2319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>7</v>
       </c>
@@ -2354,7 +2364,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>8</v>
       </c>
@@ -2401,7 +2411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>9</v>
       </c>
@@ -2448,19 +2458,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4505DDD-FC33-486C-956D-DE9A457C7264}">
   <dimension ref="A1:AF105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="12.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="6" t="s">
@@ -2550,7 +2560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2643,7 +2653,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>6</v>
@@ -2715,7 +2725,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>7</v>
@@ -2764,7 +2774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>8</v>
@@ -2807,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -2887,7 +2897,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>6</v>
@@ -2956,7 +2966,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>7</v>
@@ -3010,7 +3020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>8</v>
@@ -3052,7 +3062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
@@ -3133,7 +3143,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>6</v>
@@ -3194,7 +3204,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>7</v>
@@ -3249,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
@@ -3310,7 +3320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
@@ -3390,7 +3400,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>6</v>
@@ -3447,7 +3457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>7</v>
@@ -3516,7 +3526,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>8</v>
@@ -3567,7 +3577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>4</v>
       </c>
@@ -3651,7 +3661,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>6</v>
@@ -3700,7 +3710,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>7</v>
@@ -3767,7 +3777,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>8</v>
@@ -3831,7 +3841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
@@ -3911,7 +3921,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>6</v>
@@ -3962,7 +3972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
         <v>7</v>
@@ -4025,7 +4035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>8</v>
@@ -4094,7 +4104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="6" t="s">
@@ -4129,7 +4139,7 @@
       </c>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>0</v>
       </c>
@@ -4228,7 +4238,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>6</v>
@@ -4300,7 +4310,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>7</v>
@@ -4358,7 +4368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>8</v>
@@ -4404,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>1</v>
       </c>
@@ -4493,7 +4503,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
         <v>6</v>
@@ -4562,7 +4572,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
         <v>7</v>
@@ -4631,7 +4641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
         <v>8</v>
@@ -4691,7 +4701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>2</v>
       </c>
@@ -4790,7 +4800,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>6</v>
@@ -4854,7 +4864,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>7</v>
@@ -4918,7 +4928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>8</v>
@@ -4979,7 +4989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>3</v>
       </c>
@@ -5074,7 +5084,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>6</v>
@@ -5140,7 +5150,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>7</v>
@@ -5209,7 +5219,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
         <v>8</v>
@@ -5266,7 +5276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>4</v>
       </c>
@@ -5359,7 +5369,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
         <v>6</v>
@@ -5426,7 +5436,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>7</v>
@@ -5493,7 +5503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
         <v>8</v>
@@ -5554,7 +5564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>5</v>
       </c>
@@ -5649,7 +5659,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>6</v>
@@ -5718,7 +5728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
         <v>7</v>
@@ -5787,7 +5797,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
         <v>8</v>
@@ -5853,11 +5863,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C54" s="6" t="s">
         <v>12</v>
       </c>
@@ -5890,7 +5900,7 @@
       </c>
       <c r="M54" s="3"/>
     </row>
-    <row r="55" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>0</v>
       </c>
@@ -5987,7 +5997,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
         <v>6</v>
@@ -6059,7 +6069,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
         <v>7</v>
@@ -6108,7 +6118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
         <v>8</v>
@@ -6151,7 +6161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>1</v>
       </c>
@@ -6234,7 +6244,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
         <v>6</v>
@@ -6303,7 +6313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
         <v>7</v>
@@ -6351,7 +6361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
         <v>8</v>
@@ -6393,7 +6403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>2</v>
       </c>
@@ -6477,7 +6487,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="4" t="s">
         <v>6</v>
@@ -6538,7 +6548,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
         <v>7</v>
@@ -6593,7 +6603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
         <v>8</v>
@@ -6648,7 +6658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>3</v>
       </c>
@@ -6728,7 +6738,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
         <v>6</v>
@@ -6782,7 +6792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
         <v>7</v>
@@ -6848,7 +6858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3" t="s">
         <v>8</v>
@@ -6905,7 +6915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>4</v>
       </c>
@@ -6992,7 +7002,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
         <v>6</v>
@@ -7053,7 +7063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
         <v>7</v>
@@ -7117,7 +7127,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="4" t="s">
         <v>8</v>
@@ -7181,7 +7191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>5</v>
       </c>
@@ -7264,7 +7274,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
         <v>6</v>
@@ -7333,7 +7343,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
         <v>7</v>
@@ -7387,7 +7397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B78" s="3" t="s">
         <v>8</v>
       </c>
@@ -7437,11 +7447,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C81" s="6" t="s">
         <v>11</v>
       </c>
@@ -7473,7 +7483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>0</v>
       </c>
@@ -7567,7 +7577,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="4" t="s">
         <v>6</v>
@@ -7639,7 +7649,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="4" t="s">
         <v>7</v>
@@ -7682,7 +7692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="4" t="s">
         <v>8</v>
@@ -7734,7 +7744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>1</v>
       </c>
@@ -7817,7 +7827,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
         <v>6</v>
@@ -7886,7 +7896,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
         <v>7</v>
@@ -7934,7 +7944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
         <v>8</v>
@@ -7982,7 +7992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>2</v>
       </c>
@@ -8075,7 +8085,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="4" t="s">
         <v>6</v>
@@ -8142,7 +8152,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="4" t="s">
         <v>7</v>
@@ -8194,7 +8204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="4" t="s">
         <v>8</v>
@@ -8246,7 +8256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>3</v>
       </c>
@@ -8350,7 +8360,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
         <v>6</v>
@@ -8410,7 +8420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
         <v>7</v>
@@ -8476,7 +8486,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
         <v>8</v>
@@ -8542,7 +8552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>4</v>
       </c>
@@ -8638,7 +8648,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="99" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="4" t="s">
         <v>6</v>
@@ -8708,7 +8718,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="100" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="4" t="s">
         <v>7</v>
@@ -8763,7 +8773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="4" t="s">
         <v>8</v>
@@ -8824,7 +8834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>5</v>
       </c>
@@ -8910,7 +8920,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="103" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="3" t="s">
         <v>6</v>
@@ -8979,7 +8989,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="104" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="3" t="s">
         <v>7</v>
@@ -9027,7 +9037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B105" s="3" t="s">
         <v>8</v>
       </c>
@@ -9096,13 +9106,13 @@
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="12.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -9110,7 +9120,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="6" t="s">
@@ -9144,7 +9154,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -9182,7 +9192,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -9217,7 +9227,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -9253,7 +9263,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -9288,7 +9298,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -9324,7 +9334,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -9359,14 +9369,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>0</v>
       </c>
@@ -9404,7 +9414,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>1</v>
       </c>
@@ -9439,7 +9449,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>2</v>
       </c>
@@ -9475,7 +9485,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
@@ -9510,7 +9520,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
@@ -9546,7 +9556,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
@@ -9581,16 +9591,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C19" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>0</v>
       </c>
@@ -9628,7 +9638,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>1</v>
       </c>
@@ -9663,7 +9673,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>2</v>
       </c>
@@ -9699,7 +9709,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
@@ -9734,7 +9744,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>4</v>
       </c>
@@ -9770,7 +9780,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>5</v>
       </c>
@@ -9805,16 +9815,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C28" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>0</v>
       </c>
@@ -9852,7 +9862,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>1</v>
       </c>
@@ -9887,7 +9897,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>2</v>
       </c>
@@ -9923,7 +9933,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>3</v>
       </c>
@@ -9958,7 +9968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>4</v>
       </c>
@@ -9994,7 +10004,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>5</v>
       </c>
@@ -10029,12 +10039,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C36" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>0</v>
       </c>
@@ -10082,7 +10092,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>1</v>
       </c>
@@ -10126,7 +10136,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>2</v>
       </c>
@@ -10170,7 +10180,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>3</v>
       </c>
@@ -10214,7 +10224,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>4</v>
       </c>
@@ -10258,7 +10268,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>5</v>
       </c>
